--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H2">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>2177.593111872619</v>
+        <v>658.9737393245395</v>
       </c>
       <c r="R2">
-        <v>19598.33800685357</v>
+        <v>5930.763653920854</v>
       </c>
       <c r="S2">
-        <v>0.0006335074171710493</v>
+        <v>0.0003412947564364802</v>
       </c>
       <c r="T2">
-        <v>0.0006335074171710494</v>
+        <v>0.0003412947564364801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H3">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>1066.111118695787</v>
+        <v>3138.508061989829</v>
       </c>
       <c r="R3">
-        <v>9595.000068262079</v>
+        <v>28246.57255790846</v>
       </c>
       <c r="S3">
-        <v>0.00031015404004539</v>
+        <v>0.00162549170121514</v>
       </c>
       <c r="T3">
-        <v>0.0003101540400453901</v>
+        <v>0.00162549170121514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H4">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>525.497985222804</v>
+        <v>1493.164197461782</v>
       </c>
       <c r="R4">
-        <v>4729.481867005235</v>
+        <v>13438.47777715603</v>
       </c>
       <c r="S4">
-        <v>0.0001528783635161327</v>
+        <v>0.0007733375105580842</v>
       </c>
       <c r="T4">
-        <v>0.0001528783635161327</v>
+        <v>0.0007733375105580842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H5">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>1558.926547705157</v>
+        <v>3433.130297238826</v>
       </c>
       <c r="R5">
-        <v>14030.33892934641</v>
+        <v>30898.17267514943</v>
       </c>
       <c r="S5">
-        <v>0.0004535243638545475</v>
+        <v>0.001778082036792316</v>
       </c>
       <c r="T5">
-        <v>0.0004535243638545476</v>
+        <v>0.001778082036792316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
         <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J6">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>1379962.221758192</v>
+        <v>141852.7616222906</v>
       </c>
       <c r="R6">
-        <v>12419659.99582373</v>
+        <v>1276674.854600615</v>
       </c>
       <c r="S6">
-        <v>0.4014598953924287</v>
+        <v>0.07346818369021292</v>
       </c>
       <c r="T6">
-        <v>0.4014598953924287</v>
+        <v>0.07346818369021292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
         <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J7">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
-        <v>675605.1256661986</v>
+        <v>675605.1256661987</v>
       </c>
       <c r="R7">
-        <v>6080446.130995787</v>
+        <v>6080446.130995789</v>
       </c>
       <c r="S7">
-        <v>0.1965476726826421</v>
+        <v>0.3499084607648132</v>
       </c>
       <c r="T7">
-        <v>0.1965476726826421</v>
+        <v>0.3499084607648133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
         <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J8">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>333013.2536072853</v>
+        <v>321423.2257306546</v>
       </c>
       <c r="R8">
-        <v>2997119.282465567</v>
+        <v>2892809.031575891</v>
       </c>
       <c r="S8">
-        <v>0.09688052603870453</v>
+        <v>0.1664710670431513</v>
       </c>
       <c r="T8">
-        <v>0.09688052603870455</v>
+        <v>0.1664710670431514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
         <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J9">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>987907.1212156166</v>
+        <v>739026.4355172423</v>
       </c>
       <c r="R9">
-        <v>8891164.09094055</v>
+        <v>6651237.919655181</v>
       </c>
       <c r="S9">
-        <v>0.2874028602285557</v>
+        <v>0.3827555367661746</v>
       </c>
       <c r="T9">
-        <v>0.2874028602285557</v>
+        <v>0.3827555367661747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H10">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>22396.67150628797</v>
+        <v>3255.060749551535</v>
       </c>
       <c r="R10">
-        <v>201570.0435565918</v>
+        <v>29295.54674596382</v>
       </c>
       <c r="S10">
-        <v>0.006515660543661244</v>
+        <v>0.001685856505970735</v>
       </c>
       <c r="T10">
-        <v>0.006515660543661244</v>
+        <v>0.001685856505970735</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H11">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>10965.01471484607</v>
+        <v>15502.94616475275</v>
       </c>
       <c r="R11">
-        <v>98685.13243361466</v>
+        <v>139526.5154827748</v>
       </c>
       <c r="S11">
-        <v>0.003189952297962185</v>
+        <v>0.008029264171847886</v>
       </c>
       <c r="T11">
-        <v>0.003189952297962185</v>
+        <v>0.008029264171847888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H12">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>5404.7772690327</v>
+        <v>7375.620425747776</v>
       </c>
       <c r="R12">
-        <v>48642.9954212943</v>
+        <v>66380.58383172999</v>
       </c>
       <c r="S12">
-        <v>0.001572362839238257</v>
+        <v>0.003819971004237217</v>
       </c>
       <c r="T12">
-        <v>0.001572362839238257</v>
+        <v>0.003819971004237218</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H13">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>16033.64999688075</v>
+        <v>16958.25950529217</v>
       </c>
       <c r="R13">
-        <v>144302.8499719267</v>
+        <v>152624.3355476295</v>
       </c>
       <c r="S13">
-        <v>0.004664524397128372</v>
+        <v>0.008782998019584034</v>
       </c>
       <c r="T13">
-        <v>0.004664524397128372</v>
+        <v>0.008782998019584036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H14">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I14">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J14">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N14">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q14">
-        <v>304.1218547513259</v>
+        <v>81.741692333662</v>
       </c>
       <c r="R14">
-        <v>2737.096692761933</v>
+        <v>735.6752310029581</v>
       </c>
       <c r="S14">
-        <v>8.847541336273823E-05</v>
+        <v>4.23355428462428E-05</v>
       </c>
       <c r="T14">
-        <v>8.847541336273824E-05</v>
+        <v>4.23355428462428E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H15">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I15">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J15">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q15">
-        <v>148.8926875370001</v>
+        <v>389.3128740651424</v>
       </c>
       <c r="R15">
-        <v>1340.034187833001</v>
+        <v>3503.815866586281</v>
       </c>
       <c r="S15">
-        <v>4.3315999395363E-05</v>
+        <v>0.0002016323786557011</v>
       </c>
       <c r="T15">
-        <v>4.331599939536301E-05</v>
+        <v>0.0002016323786557012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H16">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I16">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J16">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N16">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q16">
-        <v>73.39085574008399</v>
+        <v>185.2179550548824</v>
       </c>
       <c r="R16">
-        <v>660.517701660756</v>
+        <v>1666.961595493941</v>
       </c>
       <c r="S16">
-        <v>2.135093613695881E-05</v>
+        <v>9.592782395686127E-05</v>
       </c>
       <c r="T16">
-        <v>2.135093613695881E-05</v>
+        <v>9.592782395686128E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H17">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I17">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J17">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N17">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q17">
-        <v>217.7191094719566</v>
+        <v>425.8589739644567</v>
       </c>
       <c r="R17">
-        <v>1959.47198524761</v>
+        <v>3832.73076568011</v>
       </c>
       <c r="S17">
-        <v>6.333904619662865E-05</v>
+        <v>0.0002205602835470627</v>
       </c>
       <c r="T17">
-        <v>6.333904619662866E-05</v>
+        <v>0.0002205602835470627</v>
       </c>
     </row>
   </sheetData>
